--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H2">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I2">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J2">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>43.20823124508525</v>
+        <v>43.8041513277775</v>
       </c>
       <c r="R2">
-        <v>43.20823124508525</v>
+        <v>175.21660531111</v>
       </c>
       <c r="S2">
-        <v>0.1242727297926135</v>
+        <v>0.1026799568173063</v>
       </c>
       <c r="T2">
-        <v>0.1242727297926135</v>
+        <v>0.06544367601461597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H3">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I3">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J3">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>20.65661145472737</v>
+        <v>22.400521373415</v>
       </c>
       <c r="R3">
-        <v>20.65661145472737</v>
+        <v>134.40312824049</v>
       </c>
       <c r="S3">
-        <v>0.05941121447863782</v>
+        <v>0.05250836958571202</v>
       </c>
       <c r="T3">
-        <v>0.05941121447863782</v>
+        <v>0.05019977852158395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H4">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I4">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J4">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>18.31939647451196</v>
+        <v>18.86582841829834</v>
       </c>
       <c r="R4">
-        <v>18.31939647451196</v>
+        <v>113.19497050979</v>
       </c>
       <c r="S4">
-        <v>0.05268906739383681</v>
+        <v>0.04422280511311227</v>
       </c>
       <c r="T4">
-        <v>0.05268906739383681</v>
+        <v>0.04227849845266345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H5">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I5">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J5">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>19.70367519040369</v>
+        <v>19.97569288271417</v>
       </c>
       <c r="R5">
-        <v>19.70367519040369</v>
+        <v>119.854157296285</v>
       </c>
       <c r="S5">
-        <v>0.05667044061510807</v>
+        <v>0.04682440409003423</v>
       </c>
       <c r="T5">
-        <v>0.05667044061510807</v>
+        <v>0.04476571512828841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H6">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I6">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J6">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>28.67651651796673</v>
+        <v>29.63880401706167</v>
       </c>
       <c r="R6">
-        <v>28.67651651796673</v>
+        <v>177.83282410237</v>
       </c>
       <c r="S6">
-        <v>0.08247754851191819</v>
+        <v>0.0694754041418591</v>
       </c>
       <c r="T6">
-        <v>0.08247754851191819</v>
+        <v>0.06642083782330736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.902467888902425</v>
+        <v>0.9146825000000001</v>
       </c>
       <c r="H7">
-        <v>0.902467888902425</v>
+        <v>1.829365</v>
       </c>
       <c r="I7">
-        <v>0.4560640709233947</v>
+        <v>0.3844151897968113</v>
       </c>
       <c r="J7">
-        <v>0.4560640709233947</v>
+        <v>0.3128975648803649</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>28.00392012977512</v>
+        <v>29.30982305878125</v>
       </c>
       <c r="R7">
-        <v>28.00392012977512</v>
+        <v>117.239292235125</v>
       </c>
       <c r="S7">
-        <v>0.08054307013128023</v>
+        <v>0.06870425004878737</v>
       </c>
       <c r="T7">
-        <v>0.08054307013128023</v>
+        <v>0.04378905893990577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J8">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N8">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O8">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P8">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q8">
-        <v>10.40748956368753</v>
+        <v>10.60918499405967</v>
       </c>
       <c r="R8">
-        <v>10.40748956368753</v>
+        <v>63.655109964358</v>
       </c>
       <c r="S8">
-        <v>0.0299333506856914</v>
+        <v>0.02486866253623937</v>
       </c>
       <c r="T8">
-        <v>0.0299333506856914</v>
+        <v>0.02377528308909689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J9">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P9">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q9">
-        <v>4.975521143570919</v>
+        <v>5.425313994458001</v>
       </c>
       <c r="R9">
-        <v>4.975521143570919</v>
+        <v>48.82782595012201</v>
       </c>
       <c r="S9">
-        <v>0.01431027322421942</v>
+        <v>0.01271731079784714</v>
       </c>
       <c r="T9">
-        <v>0.01431027322421942</v>
+        <v>0.01823726932903447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J10">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N10">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O10">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P10">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q10">
-        <v>4.412560341572045</v>
+        <v>4.56922592240689</v>
       </c>
       <c r="R10">
-        <v>4.412560341572045</v>
+        <v>41.12303330166201</v>
       </c>
       <c r="S10">
-        <v>0.01269112165021009</v>
+        <v>0.01071058121616301</v>
       </c>
       <c r="T10">
-        <v>0.01269112165021009</v>
+        <v>0.01535951722928162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J11">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N11">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O11">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P11">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q11">
-        <v>4.745989085904566</v>
+        <v>4.838030523441445</v>
       </c>
       <c r="R11">
-        <v>4.745989085904566</v>
+        <v>43.542274710973</v>
       </c>
       <c r="S11">
-        <v>0.01365010791406551</v>
+        <v>0.01134067777071078</v>
       </c>
       <c r="T11">
-        <v>0.01365010791406551</v>
+        <v>0.01626310767786368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J12">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N12">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O12">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P12">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q12">
-        <v>6.907261366261068</v>
+        <v>7.178396231598446</v>
       </c>
       <c r="R12">
-        <v>6.907261366261068</v>
+        <v>64.60556608438601</v>
       </c>
       <c r="S12">
-        <v>0.0198662199456257</v>
+        <v>0.01682665666919655</v>
       </c>
       <c r="T12">
-        <v>0.0198662199456257</v>
+        <v>0.02413027993585567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.217375830129206</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.217375830129206</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.1098513390095775</v>
+        <v>0.0931037753148921</v>
       </c>
       <c r="J13">
-        <v>0.1098513390095775</v>
+        <v>0.1136737517809709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N13">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O13">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P13">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q13">
-        <v>6.745254274349054</v>
+        <v>7.098718398787501</v>
       </c>
       <c r="R13">
-        <v>6.745254274349054</v>
+        <v>42.592310392725</v>
       </c>
       <c r="S13">
-        <v>0.01940026558976535</v>
+        <v>0.01663988632473525</v>
       </c>
       <c r="T13">
-        <v>0.01940026558976535</v>
+        <v>0.01590829451983861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H14">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I14">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J14">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N14">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O14">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P14">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q14">
-        <v>24.87624870067554</v>
+        <v>6.065349203228333</v>
       </c>
       <c r="R14">
-        <v>24.87624870067554</v>
+        <v>36.39209521937</v>
       </c>
       <c r="S14">
-        <v>0.07154746315575097</v>
+        <v>0.01421759754250595</v>
       </c>
       <c r="T14">
-        <v>0.07154746315575097</v>
+        <v>0.01359250445927052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H15">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I15">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J15">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P15">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q15">
-        <v>11.89261835195974</v>
+        <v>3.10169197087</v>
       </c>
       <c r="R15">
-        <v>11.89261835195974</v>
+        <v>27.91522773783</v>
       </c>
       <c r="S15">
-        <v>0.03420478238502016</v>
+        <v>0.007270580252688486</v>
       </c>
       <c r="T15">
-        <v>0.03420478238502016</v>
+        <v>0.01042638120231251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H16">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I16">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J16">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N16">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O16">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P16">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q16">
-        <v>10.5470149926138</v>
+        <v>2.612260114547778</v>
       </c>
       <c r="R16">
-        <v>10.5470149926138</v>
+        <v>23.51034103093</v>
       </c>
       <c r="S16">
-        <v>0.03033464473149028</v>
+        <v>0.006123318170240337</v>
       </c>
       <c r="T16">
-        <v>0.03033464473149028</v>
+        <v>0.008781149130753972</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H17">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I17">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J17">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N17">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O17">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P17">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q17">
-        <v>11.34398493596207</v>
+        <v>2.765937684843889</v>
       </c>
       <c r="R17">
-        <v>11.34398493596207</v>
+        <v>24.893439163595</v>
       </c>
       <c r="S17">
-        <v>0.03262683831517971</v>
+        <v>0.006483549011461701</v>
       </c>
       <c r="T17">
-        <v>0.03262683831517971</v>
+        <v>0.009297738445618464</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H18">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I18">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J18">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N18">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O18">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P18">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q18">
-        <v>16.50991341727539</v>
+        <v>4.103941998198889</v>
       </c>
       <c r="R18">
-        <v>16.50991341727539</v>
+        <v>36.93547798379</v>
       </c>
       <c r="S18">
-        <v>0.04748474885182634</v>
+        <v>0.009619923554792718</v>
       </c>
       <c r="T18">
-        <v>0.04748474885182634</v>
+        <v>0.01379545877129755</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5195772889052001</v>
+        <v>0.1266516666666667</v>
       </c>
       <c r="H19">
-        <v>0.5195772889052001</v>
+        <v>0.379955</v>
       </c>
       <c r="I19">
-        <v>0.2625694902293266</v>
+        <v>0.05322811410489338</v>
       </c>
       <c r="J19">
-        <v>0.2625694902293266</v>
+        <v>0.06498812115904647</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N19">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O19">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P19">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q19">
-        <v>16.12267990769418</v>
+        <v>4.0583895943125</v>
       </c>
       <c r="R19">
-        <v>16.12267990769418</v>
+        <v>24.350337565875</v>
       </c>
       <c r="S19">
-        <v>0.04637101279005909</v>
+        <v>0.009513145573204181</v>
       </c>
       <c r="T19">
-        <v>0.04637101279005909</v>
+        <v>0.00909488914979345</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H20">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I20">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J20">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N20">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O20">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P20">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q20">
-        <v>16.24961177232505</v>
+        <v>9.418352079997668</v>
       </c>
       <c r="R20">
-        <v>16.24961177232505</v>
+        <v>56.510112479986</v>
       </c>
       <c r="S20">
-        <v>0.04673608603792868</v>
+        <v>0.02207726791983516</v>
       </c>
       <c r="T20">
-        <v>0.04673608603792868</v>
+        <v>0.02110661535830598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H21">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I21">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J21">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P21">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q21">
-        <v>7.768471585127946</v>
+        <v>4.816347096686001</v>
       </c>
       <c r="R21">
-        <v>7.768471585127946</v>
+        <v>43.34712387017401</v>
       </c>
       <c r="S21">
-        <v>0.02234317726926192</v>
+        <v>0.01128985032044835</v>
       </c>
       <c r="T21">
-        <v>0.02234317726926192</v>
+        <v>0.01619021853372947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H22">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I22">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J22">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N22">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O22">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P22">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q22">
-        <v>6.889499339271835</v>
+        <v>4.056351029261556</v>
       </c>
       <c r="R22">
-        <v>6.889499339271835</v>
+        <v>36.507159263354</v>
       </c>
       <c r="S22">
-        <v>0.01981513394842111</v>
+        <v>0.009508367035895381</v>
       </c>
       <c r="T22">
-        <v>0.01981513394842111</v>
+        <v>0.01363548105958788</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H23">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I23">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J23">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N23">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O23">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P23">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q23">
-        <v>7.410094398818316</v>
+        <v>4.294983532576778</v>
       </c>
       <c r="R23">
-        <v>7.410094398818316</v>
+        <v>38.654851793191</v>
       </c>
       <c r="S23">
-        <v>0.02131243590460215</v>
+        <v>0.01006773810902184</v>
       </c>
       <c r="T23">
-        <v>0.02131243590460215</v>
+        <v>0.01443764757715111</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.339397203011457</v>
+        <v>0.1966663333333334</v>
       </c>
       <c r="H24">
-        <v>0.339397203011457</v>
+        <v>0.5899990000000001</v>
       </c>
       <c r="I24">
-        <v>0.1715150998377012</v>
+        <v>0.08265329866371805</v>
       </c>
       <c r="J24">
-        <v>0.1715150998377012</v>
+        <v>0.1009143885347377</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N24">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O24">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P24">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q24">
-        <v>10.78457152657989</v>
+        <v>6.372653801095779</v>
       </c>
       <c r="R24">
-        <v>10.78457152657989</v>
+        <v>57.353884209862</v>
       </c>
       <c r="S24">
-        <v>0.03101788952317323</v>
+        <v>0.01493794074931018</v>
       </c>
       <c r="T24">
-        <v>0.03101788952317323</v>
+        <v>0.02142176541855427</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1966663333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5899990000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08265329866371805</v>
+      </c>
+      <c r="J25">
+        <v>0.1009143885347377</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.0437125</v>
+      </c>
+      <c r="N25">
+        <v>64.087425</v>
+      </c>
+      <c r="O25">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P25">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q25">
+        <v>6.3019194437625</v>
+      </c>
+      <c r="R25">
+        <v>37.811516662575</v>
+      </c>
+      <c r="S25">
+        <v>0.01477213452920713</v>
+      </c>
+      <c r="T25">
+        <v>0.014122660587409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.628561</v>
+      </c>
+      <c r="I26">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J26">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.890007</v>
+      </c>
+      <c r="N26">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P26">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q26">
+        <v>25.99726589664233</v>
+      </c>
+      <c r="R26">
+        <v>155.983595379854</v>
+      </c>
+      <c r="S26">
+        <v>0.06093938722064728</v>
+      </c>
+      <c r="T26">
+        <v>0.05826011673670316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.628561</v>
+      </c>
+      <c r="I27">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J27">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.489942</v>
+      </c>
+      <c r="N27">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O27">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P27">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q27">
+        <v>13.294454811154</v>
+      </c>
+      <c r="R27">
+        <v>119.650093300386</v>
+      </c>
+      <c r="S27">
+        <v>0.03116312049294946</v>
+      </c>
+      <c r="T27">
+        <v>0.04468949690678967</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.628561</v>
+      </c>
+      <c r="I28">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J28">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N28">
+        <v>61.876646</v>
+      </c>
+      <c r="O28">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P28">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q28">
+        <v>11.19665472071178</v>
+      </c>
+      <c r="R28">
+        <v>100.769892486406</v>
+      </c>
+      <c r="S28">
+        <v>0.0262457321594525</v>
+      </c>
+      <c r="T28">
+        <v>0.03763771238575573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.628561</v>
+      </c>
+      <c r="I29">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J29">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N29">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P29">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q29">
+        <v>11.85534666464989</v>
+      </c>
+      <c r="R29">
+        <v>106.698119981849</v>
+      </c>
+      <c r="S29">
+        <v>0.0277897515802005</v>
+      </c>
+      <c r="T29">
+        <v>0.03985191462340238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.628561</v>
+      </c>
+      <c r="I30">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J30">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N30">
+        <v>97.210138</v>
+      </c>
+      <c r="O30">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P30">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q30">
+        <v>17.59029328349089</v>
+      </c>
+      <c r="R30">
+        <v>158.312639551418</v>
+      </c>
+      <c r="S30">
+        <v>0.04123286263983047</v>
+      </c>
+      <c r="T30">
+        <v>0.05913001837597377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5428536666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.628561</v>
+      </c>
+      <c r="I31">
+        <v>0.2281460455442862</v>
+      </c>
+      <c r="J31">
+        <v>0.2785517221326154</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>32.0437125</v>
+      </c>
+      <c r="N31">
+        <v>64.087425</v>
+      </c>
+      <c r="O31">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P31">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q31">
+        <v>17.3950468242375</v>
+      </c>
+      <c r="R31">
+        <v>104.370280945425</v>
+      </c>
+      <c r="S31">
+        <v>0.040775191451206</v>
+      </c>
+      <c r="T31">
+        <v>0.03898246310399066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3770265</v>
+      </c>
+      <c r="H32">
+        <v>0.754053</v>
+      </c>
+      <c r="I32">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J32">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.890007</v>
+      </c>
+      <c r="N32">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P32">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q32">
+        <v>18.0558017241855</v>
+      </c>
+      <c r="R32">
+        <v>72.223206896742</v>
+      </c>
+      <c r="S32">
+        <v>0.04232404658335555</v>
+      </c>
+      <c r="T32">
+        <v>0.02697548068857183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3770265</v>
+      </c>
+      <c r="H33">
+        <v>0.754053</v>
+      </c>
+      <c r="I33">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J33">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>24.489942</v>
+      </c>
+      <c r="N33">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O33">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P33">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q33">
+        <v>9.233357117463001</v>
+      </c>
+      <c r="R33">
+        <v>55.40014270477801</v>
+      </c>
+      <c r="S33">
+        <v>0.02164362694771951</v>
+      </c>
+      <c r="T33">
+        <v>0.0206920399119563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3770265</v>
+      </c>
+      <c r="H34">
+        <v>0.754053</v>
+      </c>
+      <c r="I34">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J34">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N34">
+        <v>61.876646</v>
+      </c>
+      <c r="O34">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P34">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q34">
+        <v>7.776378424373</v>
+      </c>
+      <c r="R34">
+        <v>46.658270546238</v>
+      </c>
+      <c r="S34">
+        <v>0.01822836823922926</v>
+      </c>
+      <c r="T34">
+        <v>0.0174269369938346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="H25">
-        <v>0.339397203011457</v>
-      </c>
-      <c r="I25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="J25">
-        <v>0.1715150998377012</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="N25">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="O25">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="P25">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="Q25">
-        <v>10.53162365362513</v>
-      </c>
-      <c r="R25">
-        <v>10.53162365362513</v>
-      </c>
-      <c r="S25">
-        <v>0.03029037715431415</v>
-      </c>
-      <c r="T25">
-        <v>0.03029037715431415</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3770265</v>
+      </c>
+      <c r="H35">
+        <v>0.754053</v>
+      </c>
+      <c r="I35">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J35">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N35">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P35">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q35">
+        <v>8.233857729479499</v>
+      </c>
+      <c r="R35">
+        <v>49.403146376877</v>
+      </c>
+      <c r="S35">
+        <v>0.0193007313342622</v>
+      </c>
+      <c r="T35">
+        <v>0.01845215240787446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3770265</v>
+      </c>
+      <c r="H36">
+        <v>0.754053</v>
+      </c>
+      <c r="I36">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J36">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N36">
+        <v>97.210138</v>
+      </c>
+      <c r="O36">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P36">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q36">
+        <v>12.216932698219</v>
+      </c>
+      <c r="R36">
+        <v>73.301596189314</v>
+      </c>
+      <c r="S36">
+        <v>0.02863733422219255</v>
+      </c>
+      <c r="T36">
+        <v>0.02737826077528453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3770265</v>
+      </c>
+      <c r="H37">
+        <v>0.754053</v>
+      </c>
+      <c r="I37">
+        <v>0.158453576575399</v>
+      </c>
+      <c r="J37">
+        <v>0.1289744515122645</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>32.0437125</v>
+      </c>
+      <c r="N37">
+        <v>64.087425</v>
+      </c>
+      <c r="O37">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P37">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q37">
+        <v>12.08132877088125</v>
+      </c>
+      <c r="R37">
+        <v>48.325315083525</v>
+      </c>
+      <c r="S37">
+        <v>0.02831946924863997</v>
+      </c>
+      <c r="T37">
+        <v>0.0180495807347428</v>
       </c>
     </row>
   </sheetData>
